--- a/Data/Results/5Yr_Annuals.xlsx
+++ b/Data/Results/5Yr_Annuals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>2020</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>GME</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
   </si>
   <si>
     <t>HPE</t>
@@ -749,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,10 +789,10 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -809,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -826,13 +829,13 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -846,10 +849,10 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -886,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -909,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -926,10 +929,10 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -966,10 +969,10 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -986,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>19</v>
@@ -1006,13 +1009,13 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1026,13 +1029,13 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1086,10 +1089,10 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -1109,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1120,16 +1123,16 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -1146,10 +1149,10 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>13</v>
@@ -1169,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>14</v>
@@ -1186,13 +1189,13 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1200,16 +1203,16 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>12</v>
@@ -1246,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1286,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1309,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -1320,19 +1323,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1346,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>9</v>
@@ -1360,19 +1363,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1380,19 +1383,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1400,19 +1403,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1420,19 +1423,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1440,19 +1443,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1460,19 +1463,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1480,19 +1483,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1506,10 +1509,10 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -1520,19 +1523,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1540,19 +1543,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1560,19 +1563,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1580,19 +1583,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1600,19 +1603,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1620,19 +1623,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1640,19 +1643,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1666,10 +1669,10 @@
         <v>16</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F46">
         <v>9</v>
@@ -1680,19 +1683,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F47">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1700,19 +1703,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1720,19 +1723,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1740,19 +1743,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1760,19 +1763,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1780,19 +1783,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1800,19 +1803,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1820,19 +1823,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1840,19 +1843,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1860,19 +1863,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1880,19 +1883,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>14</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1900,19 +1903,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1920,19 +1923,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1940,19 +1943,19 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1960,19 +1963,19 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1980,19 +1983,19 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2003,16 +2006,16 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2020,19 +2023,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>13</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2040,19 +2043,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2066,13 +2069,13 @@
         <v>7</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2080,16 +2083,16 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F67">
         <v>9</v>
@@ -2100,19 +2103,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2120,19 +2123,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>14</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2140,19 +2143,19 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F70">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2160,19 +2163,19 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>11</v>
+      </c>
+      <c r="E71">
         <v>12</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
       <c r="F71">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2180,19 +2183,19 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
         <v>17</v>
       </c>
-      <c r="D72">
-        <v>13</v>
-      </c>
       <c r="E72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2200,16 +2203,16 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F73">
         <v>3</v>
@@ -2220,19 +2223,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2240,19 +2243,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2260,19 +2263,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2280,19 +2283,19 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2300,19 +2303,19 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2320,19 +2323,19 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2340,19 +2343,19 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2360,19 +2363,19 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>13</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2380,19 +2383,19 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2400,19 +2403,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F83">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2420,19 +2423,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2440,19 +2443,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>16</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2460,19 +2463,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2480,19 +2483,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2500,19 +2503,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>18</v>
       </c>
       <c r="F88">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2520,19 +2523,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2543,16 +2546,16 @@
         <v>14</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>10</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2560,19 +2563,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E91">
         <v>4</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2580,7 +2583,7 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2589,7 +2592,7 @@
         <v>7</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92">
         <v>6</v>
@@ -2600,16 +2603,16 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>7</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93">
         <v>6</v>
@@ -2620,19 +2623,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2640,19 +2643,19 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2663,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2680,19 +2683,19 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2700,19 +2703,19 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2720,19 +2723,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F99">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2740,19 +2743,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100">
         <v>17</v>
-      </c>
-      <c r="D100">
-        <v>13</v>
-      </c>
-      <c r="E100">
-        <v>11</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2760,7 +2763,7 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C101">
         <v>17</v>
@@ -2772,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2780,19 +2783,19 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2800,19 +2803,19 @@
         <v>107</v>
       </c>
       <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
         <v>12</v>
       </c>
-      <c r="C103">
-        <v>11</v>
-      </c>
-      <c r="D103">
-        <v>11</v>
-      </c>
       <c r="E103">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2820,19 +2823,19 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2840,19 +2843,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2860,19 +2863,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2880,19 +2883,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F107">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2900,16 +2903,16 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F108">
         <v>12</v>
@@ -2920,19 +2923,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E109">
         <v>4</v>
       </c>
       <c r="F109">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2940,19 +2943,19 @@
         <v>114</v>
       </c>
       <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
         <v>2</v>
       </c>
-      <c r="C110">
-        <v>6</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
       <c r="E110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2963,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -2980,19 +2983,19 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3000,19 +3003,19 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3020,16 +3023,16 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -3043,16 +3046,16 @@
         <v>19</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3060,19 +3063,19 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3083,16 +3086,16 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3100,19 +3103,19 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3120,19 +3123,19 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>6</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3140,19 +3143,19 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3160,18 +3163,38 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>16</v>
+      </c>
+      <c r="F122">
         <v>16</v>
       </c>
     </row>

--- a/Data/Results/5Yr_Annuals.xlsx
+++ b/Data/Results/5Yr_Annuals.xlsx
@@ -786,16 +786,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -803,19 +803,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>6</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -823,19 +823,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -846,16 +846,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -863,19 +863,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>16</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -883,19 +883,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -906,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -923,19 +923,19 @@
         <v>13</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>14</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -943,19 +943,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>16</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -966,16 +966,16 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -983,19 +983,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1026,16 +1026,16 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1043,16 +1043,16 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -1063,19 +1063,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1086,16 +1086,16 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1146,16 +1146,16 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>6</v>
-      </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1223,19 +1223,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>14</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1263,16 +1263,16 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -1283,19 +1283,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1309,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>6</v>
-      </c>
-      <c r="E28">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1346,16 +1346,16 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1366,16 +1366,16 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1426,16 +1426,16 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1466,16 +1466,16 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1486,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1506,16 +1506,16 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1526,16 +1526,16 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1566,16 +1566,16 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1583,16 +1583,16 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>6</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -1603,19 +1603,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1623,16 +1623,16 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>6</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>7</v>
@@ -1643,19 +1643,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1666,16 +1666,16 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1686,16 +1686,16 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>14</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>16</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <v>16</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1823,16 +1823,16 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>6</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F54">
         <v>7</v>
@@ -1843,19 +1843,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>16</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1866,16 +1866,16 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
       <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
         <v>6</v>
-      </c>
-      <c r="E57">
-        <v>14</v>
-      </c>
-      <c r="F57">
-        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1906,16 +1906,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>16</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>69</v>
       </c>
       <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
         <v>9</v>
       </c>
-      <c r="C65">
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
         <v>14</v>
-      </c>
-      <c r="D65">
-        <v>18</v>
-      </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-      <c r="F65">
-        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>16</v>
       </c>
       <c r="F66">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2106,16 +2106,16 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
         <v>6</v>
-      </c>
-      <c r="E69">
-        <v>14</v>
-      </c>
-      <c r="F69">
-        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2146,16 +2146,16 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2163,16 +2163,16 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C71">
         <v>11</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F71">
         <v>11</v>
@@ -2183,19 +2183,19 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2209,13 +2209,13 @@
         <v>17</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>78</v>
       </c>
       <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
         <v>6</v>
       </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
       <c r="E74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>79</v>
       </c>
       <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
         <v>9</v>
       </c>
-      <c r="C75">
-        <v>14</v>
-      </c>
-      <c r="D75">
-        <v>18</v>
-      </c>
       <c r="E75">
         <v>7</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2272,10 +2272,10 @@
         <v>2</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2286,16 +2286,16 @@
         <v>7</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2343,16 +2343,16 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>6</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F80">
         <v>7</v>
@@ -2363,19 +2363,19 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F81">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>86</v>
       </c>
       <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
         <v>9</v>
       </c>
-      <c r="C82">
-        <v>9</v>
-      </c>
-      <c r="D82">
-        <v>7</v>
-      </c>
       <c r="E82">
         <v>7</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>16</v>
       </c>
       <c r="F83">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2423,16 +2423,16 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D84">
         <v>15</v>
       </c>
       <c r="E84">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F84">
         <v>18</v>
@@ -2443,19 +2443,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2466,16 +2466,16 @@
         <v>7</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2483,13 +2483,13 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>10</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -2503,19 +2503,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F89">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2543,13 +2543,13 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>10</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>10</v>
@@ -2563,19 +2563,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2646,16 +2646,16 @@
         <v>7</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E97">
         <v>16</v>
       </c>
       <c r="F97">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>102</v>
       </c>
       <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98">
         <v>9</v>
       </c>
-      <c r="C98">
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98">
         <v>14</v>
-      </c>
-      <c r="D98">
-        <v>18</v>
-      </c>
-      <c r="E98">
-        <v>7</v>
-      </c>
-      <c r="F98">
-        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2729,13 +2729,13 @@
         <v>17</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2743,19 +2743,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2769,13 +2769,13 @@
         <v>17</v>
       </c>
       <c r="D101">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2789,13 +2789,13 @@
         <v>17</v>
       </c>
       <c r="D102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2803,19 +2803,19 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2823,16 +2823,16 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C104">
         <v>11</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F104">
         <v>11</v>
@@ -2843,19 +2843,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E105">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2863,16 +2863,16 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>6</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F106">
         <v>7</v>
@@ -2883,19 +2883,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E107">
         <v>16</v>
       </c>
       <c r="F107">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2903,19 +2903,19 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2923,19 +2923,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -2955,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2963,16 +2963,16 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>6</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -2983,16 +2983,16 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F112">
         <v>7</v>
@@ -3003,19 +3003,19 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113">
         <v>5</v>
       </c>
       <c r="D113">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
         <v>6</v>
-      </c>
-      <c r="E113">
-        <v>14</v>
-      </c>
-      <c r="F113">
-        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3023,19 +3023,19 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3043,19 +3043,19 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3063,19 +3063,19 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3083,19 +3083,19 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3103,19 +3103,19 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3123,19 +3123,19 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3143,19 +3143,19 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E120">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3166,16 +3166,16 @@
         <v>7</v>
       </c>
       <c r="C121">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D121">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3183,19 +3183,19 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E122">
         <v>16</v>
       </c>
       <c r="F122">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
